--- a/P80/BP8/Heater/PCB_ordering_document.xlsx
+++ b/P80/BP8/Heater/PCB_ordering_document.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Read-Me File</t>
   </si>
@@ -55,15 +55,6 @@
     <t>This Document</t>
   </si>
   <si>
-    <t>ODB++</t>
-  </si>
-  <si>
-    <t>ODB</t>
-  </si>
-  <si>
-    <t>Netlist etc.</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -80,9 +71,6 @@
   </si>
   <si>
     <t>Outline (Mechanical 4)</t>
-  </si>
-  <si>
-    <t>OBD++</t>
   </si>
   <si>
     <t>PCB Specifications:</t>
@@ -271,9 +259,6 @@
     <t>L2 in stackup</t>
   </si>
   <si>
-    <t>Bottom Paste</t>
-  </si>
-  <si>
     <t>ID-text (Mechanical 7)</t>
   </si>
   <si>
@@ -284,30 +269,6 @@
   </si>
   <si>
     <t>200um</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GM4</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GM6</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GTP</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GTL</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GBL</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GBP</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.zip</t>
-  </si>
-  <si>
-    <t>GND_breaker_default.GM7</t>
   </si>
   <si>
     <t>Top side flex</t>
@@ -348,9 +309,6 @@
     <t>NanoPower BP8 Heater</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Top layer 150 ohm +/- 3%</t>
   </si>
   <si>
@@ -358,6 +316,45 @@
   </si>
   <si>
     <t>Flexible Metal-Clad Dielectrics IPC-4204A  Dupont Pyralux</t>
+  </si>
+  <si>
+    <t>Top cover layer</t>
+  </si>
+  <si>
+    <t>Top Coverlay</t>
+  </si>
+  <si>
+    <t>Bottom Coverlay</t>
+  </si>
+  <si>
+    <t>Bottom cover layer</t>
+  </si>
+  <si>
+    <t>Gerber</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GM4</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GM6</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GTP</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GTL</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GBL</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GM7</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GCB2</t>
+  </si>
+  <si>
+    <t>Flex_heater_default.GCT2</t>
   </si>
 </sst>
 </file>
@@ -806,7 +803,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,9 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,102 +980,66 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -1089,14 +1047,68 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1106,6 +1118,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1171,12 +1201,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1186,103 +1210,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1317,7 +1317,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1405,11 +1405,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1433,11 +1433,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1537,11 +1537,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2048,8 +2048,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>28</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2651,8 +2651,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4242,8 +4242,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5716,8 +5716,8 @@
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>129540</xdr:colOff>
-          <xdr:row>41</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>181707</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6309,8 +6309,8 @@
   </sheetPr>
   <dimension ref="A1:Q334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6324,264 +6324,264 @@
     <col min="8" max="8" width="71.44140625" style="11" customWidth="1"/>
     <col min="9" max="9" width="3.88671875" style="14" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="14"/>
-    <col min="11" max="11" width="9.109375" style="48"/>
+    <col min="11" max="11" width="9.109375" style="47"/>
     <col min="12" max="15" width="9.109375" style="14"/>
     <col min="16" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K1" s="48"/>
+      <c r="K1" s="47"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="97"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="140"/>
+      <c r="C8" s="143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="146">
+        <f ca="1">TODAY()</f>
+        <v>43185</v>
+      </c>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="141"/>
+      <c r="C9" s="144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="148"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="141"/>
+      <c r="C10" s="143" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="64">
+        <v>102477</v>
+      </c>
+      <c r="H10" s="72"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="141"/>
+      <c r="C11" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
-        <v>47</v>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="147">
+        <v>1</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="122"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="129" t="s">
+      <c r="H11" s="148"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="141"/>
+      <c r="C12" s="143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="72"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="141"/>
+      <c r="C13" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="122"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="129" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:17" s="44" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="122"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="132" t="s">
-        <v>51</v>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="129" t="s">
+        <v>79</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="135"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="137"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
-      <c r="C8" s="66" t="s">
-        <v>12</v>
+      <c r="H14" s="130"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="141"/>
+      <c r="C15" s="70" t="s">
+        <v>24</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="70">
-        <f ca="1">TODAY()</f>
-        <v>43181</v>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59" t="s">
+        <v>83</v>
       </c>
-      <c r="H8" s="71"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="68" t="s">
-        <v>1</v>
+      <c r="H15" s="71"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="141"/>
+      <c r="C16" s="65" t="s">
+        <v>23</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="72" t="s">
-        <v>93</v>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
+        <v>82</v>
       </c>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="66" t="s">
-        <v>56</v>
+      <c r="H16" s="72"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="141"/>
+      <c r="C17" s="70" t="s">
+        <v>18</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="71"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="72">
-        <v>1</v>
-      </c>
-      <c r="H11" s="73"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="66" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59">
         <v>2</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="74" t="s">
-        <v>69</v>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="141"/>
+      <c r="C18" s="65" t="s">
+        <v>30</v>
       </c>
-      <c r="H12" s="71"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="146" t="s">
-        <v>19</v>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="149" t="s">
+        <v>33</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-    </row>
-    <row r="14" spans="1:17" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="148" t="s">
-        <v>20</v>
+      <c r="H18" s="150"/>
+    </row>
+    <row r="19" spans="1:15" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="28"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="70" t="s">
+        <v>64</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="78" t="s">
-        <v>92</v>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="134" t="s">
+        <v>63</v>
       </c>
-      <c r="H14" s="79"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="71"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60">
-        <v>2</v>
-      </c>
-      <c r="H17" s="77"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="76"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="150" t="s">
-        <v>63</v>
+      <c r="B20" s="73" t="s">
+        <v>59</v>
       </c>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="152"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
@@ -6590,19 +6590,19 @@
     <row r="21" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="74" t="s">
-        <v>23</v>
+      <c r="C21" s="64" t="s">
+        <v>19</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74" t="s">
-        <v>25</v>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64" t="s">
+        <v>21</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="72"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
@@ -6611,19 +6611,19 @@
     <row r="22" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="60" t="s">
-        <v>24</v>
+      <c r="C22" s="59" t="s">
+        <v>20</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60" t="s">
-        <v>25</v>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
+        <v>21</v>
       </c>
-      <c r="H22" s="77"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -6632,19 +6632,19 @@
     <row r="23" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="74" t="s">
-        <v>44</v>
+      <c r="C23" s="64" t="s">
+        <v>40</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74" t="s">
-        <v>41</v>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64" t="s">
+        <v>37</v>
       </c>
-      <c r="H23" s="71"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
@@ -6653,19 +6653,19 @@
     <row r="24" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="60" t="s">
-        <v>48</v>
+      <c r="C24" s="59" t="s">
+        <v>44</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60" t="s">
-        <v>49</v>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59" t="s">
+        <v>45</v>
       </c>
-      <c r="H24" s="77"/>
+      <c r="H24" s="71"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="48"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
@@ -6674,19 +6674,19 @@
     <row r="25" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="74" t="s">
-        <v>26</v>
+      <c r="C25" s="64" t="s">
+        <v>22</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74" t="s">
-        <v>42</v>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64" t="s">
+        <v>38</v>
       </c>
-      <c r="H25" s="71"/>
+      <c r="H25" s="72"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -6695,19 +6695,19 @@
     <row r="26" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="60" t="s">
-        <v>21</v>
+      <c r="C26" s="59" t="s">
+        <v>17</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60" t="s">
-        <v>40</v>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59" t="s">
+        <v>36</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
@@ -6716,19 +6716,19 @@
     <row r="27" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="74" t="s">
-        <v>45</v>
+      <c r="C27" s="64" t="s">
+        <v>41</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="144" t="s">
-        <v>46</v>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="60" t="s">
+        <v>42</v>
       </c>
-      <c r="H27" s="145"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
@@ -6737,428 +6737,428 @@
     <row r="28" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="60" t="s">
-        <v>39</v>
+      <c r="C28" s="59" t="s">
+        <v>35</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="85" t="s">
-        <v>53</v>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="62" t="s">
+        <v>49</v>
       </c>
-      <c r="H28" s="86"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
       <c r="O28" s="25"/>
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="61"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="71"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+    </row>
+    <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="77"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+    </row>
+    <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="138" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="139"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+    </row>
+    <row r="33" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="77"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+    </row>
+    <row r="34" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="144" t="s">
-        <v>80</v>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="134" t="s">
+        <v>60</v>
       </c>
-      <c r="H29" s="145"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="87" t="s">
+      <c r="H34" s="135"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+    </row>
+    <row r="35" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="77"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="89" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="90"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="88"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="74" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="90"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27"/>
-      <c r="K35" s="47"/>
+      <c r="K35" s="46"/>
       <c r="L35" s="27"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="60" t="s">
-        <v>43</v>
+      <c r="B36" s="48"/>
+      <c r="C36" s="59" t="s">
+        <v>39</v>
       </c>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="85" t="s">
-        <v>95</v>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="62" t="s">
+        <v>81</v>
       </c>
-      <c r="H36" s="86"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="27"/>
       <c r="J36" s="27"/>
-      <c r="K36" s="47"/>
+      <c r="K36" s="46"/>
       <c r="L36" s="27"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="74" t="s">
-        <v>65</v>
+      <c r="A37" s="28"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="64" t="s">
+        <v>61</v>
       </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="83" t="s">
-        <v>67</v>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="136" t="s">
+        <v>63</v>
       </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="80" t="s">
-        <v>36</v>
+      <c r="A38" s="28"/>
+      <c r="B38" s="131" t="s">
+        <v>32</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="82"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="133"/>
       <c r="I38" s="27"/>
       <c r="J38" s="27"/>
-      <c r="K38" s="47"/>
+      <c r="K38" s="46"/>
       <c r="L38" s="27"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="38"/>
-      <c r="C39" s="140" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="39" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G39" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="39" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="27"/>
       <c r="J39" s="27"/>
-      <c r="K39" s="47"/>
+      <c r="K39" s="46"/>
       <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="36"/>
-      <c r="C40" s="143" t="s">
+      <c r="B40" s="35"/>
+      <c r="C40" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="143"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="51" t="s">
-        <v>14</v>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="50" t="s">
+        <v>11</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="27"/>
       <c r="J40" s="27"/>
-      <c r="K40" s="47"/>
+      <c r="K40" s="46"/>
       <c r="L40" s="27"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
-      <c r="C41" s="93" t="s">
-        <v>17</v>
+      <c r="C41" s="107" t="s">
+        <v>14</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="50" t="s">
-        <v>81</v>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="49" t="s">
+        <v>89</v>
       </c>
-      <c r="G41" s="50" t="s">
-        <v>18</v>
+      <c r="G41" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I41" s="27"/>
       <c r="J41" s="27"/>
-      <c r="K41" s="47"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
-      <c r="C42" s="94" t="s">
-        <v>71</v>
+      <c r="C42" s="99" t="s">
+        <v>67</v>
       </c>
-      <c r="D42" s="95"/>
-      <c r="E42" s="96"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="19" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I42" s="27"/>
       <c r="J42" s="10"/>
-      <c r="K42" s="47"/>
+      <c r="K42" s="46"/>
       <c r="L42" s="27"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
-      <c r="C43" s="93" t="s">
-        <v>73</v>
+      <c r="C43" s="107" t="s">
+        <v>69</v>
       </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="52" t="s">
-        <v>83</v>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="51" t="s">
+        <v>91</v>
       </c>
-      <c r="G43" s="50" t="s">
-        <v>18</v>
+      <c r="G43" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I43" s="27"/>
       <c r="J43" s="27"/>
-      <c r="K43" s="47"/>
+      <c r="K43" s="46"/>
       <c r="L43" s="27"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
-      <c r="C44" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="19" t="s">
+      <c r="C44" s="98" t="s">
         <v>84</v>
       </c>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="G44" s="19" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
-      <c r="H44" s="53" t="s">
-        <v>74</v>
+      <c r="H44" s="52" t="s">
+        <v>85</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="27"/>
-      <c r="K44" s="47"/>
+      <c r="K44" s="46"/>
       <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="54"/>
-      <c r="C45" s="115" t="s">
-        <v>90</v>
+      <c r="B45" s="53"/>
+      <c r="C45" s="126" t="s">
+        <v>76</v>
       </c>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="55" t="s">
-        <v>85</v>
+      <c r="D45" s="127"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="54" t="s">
+        <v>92</v>
       </c>
-      <c r="G45" s="52" t="s">
-        <v>18</v>
+      <c r="G45" s="51" t="s">
+        <v>88</v>
       </c>
-      <c r="H45" s="56" t="s">
-        <v>75</v>
+      <c r="H45" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="I45" s="7"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="42"/>
-      <c r="C46" s="116" t="s">
-        <v>76</v>
+      <c r="B46" s="41"/>
+      <c r="C46" s="151" t="s">
+        <v>77</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="57" t="s">
-        <v>86</v>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="58" t="s">
+        <v>93</v>
       </c>
-      <c r="G46" s="57" t="s">
-        <v>18</v>
+      <c r="G46" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I46" s="7"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="54"/>
-      <c r="C47" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="118"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="55" t="s">
+      <c r="B47" s="53"/>
+      <c r="C47" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="55" t="s">
-        <v>10</v>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="54" t="s">
+        <v>95</v>
       </c>
-      <c r="H47" s="58" t="s">
-        <v>11</v>
+      <c r="G47" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>86</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="94" t="s">
-        <v>79</v>
+      <c r="C48" s="99" t="s">
+        <v>74</v>
       </c>
-      <c r="D48" s="95"/>
-      <c r="E48" s="96"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="101"/>
       <c r="F48" s="19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="53"/>
+      <c r="H48" s="52"/>
       <c r="I48" s="7"/>
       <c r="J48" s="14"/>
-      <c r="K48" s="48"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
       <c r="N48" s="14"/>
@@ -7167,23 +7167,23 @@
     <row r="49" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="106" t="s">
-        <v>77</v>
+      <c r="C49" s="117" t="s">
+        <v>72</v>
       </c>
-      <c r="D49" s="107"/>
-      <c r="E49" s="108"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="119"/>
       <c r="F49" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="28" t="s">
-        <v>9</v>
-      </c>
       <c r="H49" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="14"/>
-      <c r="K49" s="48"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
       <c r="N49" s="14"/>
@@ -7192,15 +7192,15 @@
     <row r="50" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="96"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="19"/>
       <c r="G50" s="17"/>
       <c r="H50" s="15"/>
       <c r="I50" s="7"/>
       <c r="J50" s="14"/>
-      <c r="K50" s="48"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
@@ -7209,15 +7209,15 @@
     <row r="51" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="9"/>
-      <c r="C51" s="112"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="21"/>
       <c r="I51" s="7"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="48"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14"/>
@@ -7225,54 +7225,54 @@
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="3"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="111"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="122"/>
       <c r="F52" s="17"/>
       <c r="G52" s="22"/>
       <c r="H52" s="4"/>
       <c r="I52" s="7"/>
     </row>
     <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="97" t="s">
-        <v>66</v>
+      <c r="B53" s="108" t="s">
+        <v>62</v>
       </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="99"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="110"/>
       <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="100"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="102"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="112"/>
+      <c r="H54" s="113"/>
       <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="100"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
-      <c r="G55" s="101"/>
-      <c r="H55" s="102"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="113"/>
       <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="103"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="105"/>
+      <c r="B56" s="114"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
       <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
@@ -7284,7 +7284,7 @@
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
       <c r="I57" s="24"/>
-      <c r="K57" s="48"/>
+      <c r="K57" s="47"/>
     </row>
     <row r="58" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B58" s="26"/>
@@ -7292,9 +7292,9 @@
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="K58" s="48"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="82"/>
+      <c r="K58" s="47"/>
     </row>
     <row r="59" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="26"/>
@@ -7302,9 +7302,9 @@
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="K59" s="48"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="82"/>
+      <c r="K59" s="47"/>
     </row>
     <row r="60" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="26"/>
@@ -7312,64 +7312,64 @@
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="K60" s="48"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="82"/>
+      <c r="K60" s="47"/>
     </row>
     <row r="61" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
-      <c r="K61" s="48"/>
+      <c r="K61" s="47"/>
     </row>
     <row r="62" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K62" s="47"/>
+      <c r="K62" s="46"/>
     </row>
     <row r="63" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K63" s="47"/>
+      <c r="K63" s="46"/>
     </row>
     <row r="64" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K64" s="47"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K65" s="47"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K66" s="47"/>
+      <c r="K66" s="46"/>
     </row>
     <row r="67" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K67" s="47"/>
+      <c r="K67" s="46"/>
     </row>
     <row r="68" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K68" s="47"/>
+      <c r="K68" s="46"/>
     </row>
     <row r="69" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K69" s="47"/>
+      <c r="K69" s="46"/>
     </row>
     <row r="70" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K70" s="47"/>
+      <c r="K70" s="46"/>
     </row>
     <row r="71" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K71" s="47"/>
+      <c r="K71" s="46"/>
     </row>
     <row r="72" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K72" s="47"/>
+      <c r="K72" s="46"/>
     </row>
     <row r="73" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K73" s="47"/>
+      <c r="K73" s="46"/>
     </row>
     <row r="74" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K74" s="47"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K75" s="47"/>
+      <c r="K75" s="46"/>
     </row>
     <row r="76" spans="2:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="K76" s="47"/>
+      <c r="K76" s="46"/>
     </row>
     <row r="77" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="24"/>
@@ -7379,7 +7379,7 @@
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
       <c r="H77" s="24"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B78" s="24"/>
@@ -7389,7 +7389,7 @@
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
       <c r="H78" s="24"/>
-      <c r="K78" s="48"/>
+      <c r="K78" s="47"/>
     </row>
     <row r="79" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B79" s="24"/>
@@ -7399,7 +7399,7 @@
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
       <c r="H79" s="24"/>
-      <c r="K79" s="48"/>
+      <c r="K79" s="47"/>
     </row>
     <row r="80" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B80" s="24"/>
@@ -7409,7 +7409,7 @@
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
       <c r="H80" s="24"/>
-      <c r="K80" s="48"/>
+      <c r="K80" s="47"/>
     </row>
     <row r="81" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B81" s="24"/>
@@ -7419,7 +7419,7 @@
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
       <c r="H81" s="24"/>
-      <c r="K81" s="48"/>
+      <c r="K81" s="47"/>
     </row>
     <row r="82" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B82" s="24"/>
@@ -7429,7 +7429,7 @@
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
       <c r="H82" s="24"/>
-      <c r="K82" s="48"/>
+      <c r="K82" s="47"/>
     </row>
     <row r="83" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="24"/>
@@ -7439,7 +7439,7 @@
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
       <c r="H83" s="24"/>
-      <c r="K83" s="48"/>
+      <c r="K83" s="47"/>
     </row>
     <row r="84" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" s="24"/>
@@ -7449,7 +7449,7 @@
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
       <c r="H84" s="24"/>
-      <c r="K84" s="48"/>
+      <c r="K84" s="47"/>
     </row>
     <row r="85" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" s="24"/>
@@ -7459,7 +7459,7 @@
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
       <c r="H85" s="24"/>
-      <c r="K85" s="48"/>
+      <c r="K85" s="47"/>
     </row>
     <row r="86" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="24"/>
@@ -7469,7 +7469,7 @@
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
       <c r="H86" s="24"/>
-      <c r="K86" s="48"/>
+      <c r="K86" s="47"/>
     </row>
     <row r="87" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="24"/>
@@ -7479,17 +7479,17 @@
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
       <c r="H87" s="24"/>
-      <c r="K87" s="48"/>
+      <c r="K87" s="47"/>
     </row>
     <row r="88" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="26"/>
-      <c r="C88" s="91"/>
-      <c r="D88" s="91"/>
-      <c r="E88" s="91"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
       <c r="F88" s="26"/>
       <c r="G88" s="26"/>
       <c r="H88" s="26"/>
-      <c r="K88" s="48"/>
+      <c r="K88" s="47"/>
     </row>
     <row r="89" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="24"/>
@@ -7499,7 +7499,7 @@
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
       <c r="H89" s="24"/>
-      <c r="K89" s="48"/>
+      <c r="K89" s="47"/>
     </row>
     <row r="90" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="24"/>
@@ -7509,7 +7509,7 @@
       <c r="F90" s="24"/>
       <c r="G90" s="24"/>
       <c r="H90" s="24"/>
-      <c r="K90" s="48"/>
+      <c r="K90" s="47"/>
     </row>
     <row r="91" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="24"/>
@@ -7519,7 +7519,7 @@
       <c r="F91" s="24"/>
       <c r="G91" s="24"/>
       <c r="H91" s="24"/>
-      <c r="K91" s="48"/>
+      <c r="K91" s="47"/>
     </row>
     <row r="92" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="24"/>
@@ -7529,7 +7529,7 @@
       <c r="F92" s="24"/>
       <c r="G92" s="24"/>
       <c r="H92" s="24"/>
-      <c r="K92" s="48"/>
+      <c r="K92" s="47"/>
     </row>
     <row r="93" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="24"/>
@@ -7539,7 +7539,7 @@
       <c r="F93" s="24"/>
       <c r="G93" s="24"/>
       <c r="H93" s="24"/>
-      <c r="K93" s="48"/>
+      <c r="K93" s="47"/>
     </row>
     <row r="94" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="24"/>
@@ -7549,7 +7549,7 @@
       <c r="F94" s="24"/>
       <c r="G94" s="24"/>
       <c r="H94" s="24"/>
-      <c r="K94" s="48"/>
+      <c r="K94" s="47"/>
     </row>
     <row r="95" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="24"/>
@@ -7559,7 +7559,7 @@
       <c r="F95" s="24"/>
       <c r="G95" s="24"/>
       <c r="H95" s="24"/>
-      <c r="K95" s="48"/>
+      <c r="K95" s="47"/>
     </row>
     <row r="96" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="24"/>
@@ -7569,7 +7569,7 @@
       <c r="F96" s="24"/>
       <c r="G96" s="24"/>
       <c r="H96" s="24"/>
-      <c r="K96" s="48"/>
+      <c r="K96" s="47"/>
     </row>
     <row r="97" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="24"/>
@@ -7579,7 +7579,7 @@
       <c r="F97" s="24"/>
       <c r="G97" s="24"/>
       <c r="H97" s="24"/>
-      <c r="K97" s="48"/>
+      <c r="K97" s="47"/>
     </row>
     <row r="98" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="24"/>
@@ -7589,7 +7589,7 @@
       <c r="F98" s="24"/>
       <c r="G98" s="24"/>
       <c r="H98" s="24"/>
-      <c r="K98" s="48"/>
+      <c r="K98" s="47"/>
     </row>
     <row r="99" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="24"/>
@@ -7599,7 +7599,7 @@
       <c r="F99" s="24"/>
       <c r="G99" s="24"/>
       <c r="H99" s="24"/>
-      <c r="K99" s="48"/>
+      <c r="K99" s="47"/>
     </row>
     <row r="100" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="24"/>
@@ -7609,7 +7609,7 @@
       <c r="F100" s="24"/>
       <c r="G100" s="24"/>
       <c r="H100" s="24"/>
-      <c r="K100" s="48"/>
+      <c r="K100" s="47"/>
     </row>
     <row r="101" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B101" s="24"/>
@@ -7619,7 +7619,7 @@
       <c r="F101" s="24"/>
       <c r="G101" s="24"/>
       <c r="H101" s="24"/>
-      <c r="K101" s="48"/>
+      <c r="K101" s="47"/>
     </row>
     <row r="102" spans="2:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="24"/>
@@ -7629,7 +7629,7 @@
       <c r="F102" s="24"/>
       <c r="G102" s="24"/>
       <c r="H102" s="24"/>
-      <c r="K102" s="48"/>
+      <c r="K102" s="47"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="23"/>
@@ -9721,14 +9721,67 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B8:B19"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B53:H56"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G2:H5"/>
+    <mergeCell ref="G58:H60"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C13:H13"/>
@@ -9745,67 +9798,14 @@
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B20:H20"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G2:H5"/>
-    <mergeCell ref="G58:H60"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="B53:H56"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G18:H18" location="'Stack-up'!A1" display="See "/>
@@ -11186,7 +11186,7 @@
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$B$4:$B$7</xm:f>
@@ -11242,27 +11242,27 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="46" t="s">
-        <v>59</v>
+      <c r="B4" s="45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
